--- a/Ele_Charge_Analysis/전동휠체어급속충전소_수요분석_회귀모델_정확도기록.xlsx
+++ b/Ele_Charge_Analysis/전동휠체어급속충전소_수요분석_회귀모델_정확도기록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>=== No Scaled data ===</t>
   </si>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>GBR R2 : 0.8455016556801749</t>
+  </si>
+  <si>
+    <t>raw data -&gt; Random Over Sampling -&gt; Min-Max Scaling -&gt; Gradient Boosting Regressor 결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -202,6 +206,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>463632</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6728460" y="60960"/>
+          <a:ext cx="5134692" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -479,7 +526,7 @@
     <col min="6" max="6" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -512,7 +559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,7 +570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -534,7 +581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +591,11 @@
       <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -556,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,7 +617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -578,7 +628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -589,12 +639,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,5 +703,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>